--- a/howbadarebananas_seasonality.xlsx
+++ b/howbadarebananas_seasonality.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>Jan</t>
   </si>
@@ -56,220 +56,217 @@
     <t>Shallots</t>
   </si>
   <si>
+    <t>Purple sprouting broccoli</t>
+  </si>
+  <si>
+    <t>Broccoli (white and purple)</t>
+  </si>
+  <si>
+    <t>Cauliflower</t>
+  </si>
+  <si>
+    <t>Japanese mustard spinach (komatsuma)</t>
+  </si>
+  <si>
+    <t>Chard</t>
+  </si>
+  <si>
+    <t>Early rhubarb</t>
+  </si>
+  <si>
+    <t>Kohlrabi</t>
+  </si>
+  <si>
+    <t>Spring greens</t>
+  </si>
+  <si>
+    <t>Claytonia</t>
+  </si>
+  <si>
+    <t>Rhubarb (forced)</t>
+  </si>
+  <si>
+    <t>Radishes</t>
+  </si>
+  <si>
+    <t>Watercress</t>
+  </si>
+  <si>
+    <t>Salad onions</t>
+  </si>
+  <si>
+    <t>Broccoli (calabrese)</t>
+  </si>
+  <si>
+    <t>Asparagus</t>
+  </si>
+  <si>
+    <t>Rhubarb</t>
+  </si>
+  <si>
+    <t>New carrots</t>
+  </si>
+  <si>
+    <t>New potatoes</t>
+  </si>
+  <si>
+    <t>Gooseberries</t>
+  </si>
+  <si>
+    <t>Land cress</t>
+  </si>
+  <si>
+    <t>Rocket</t>
+  </si>
+  <si>
+    <t>Strawberries</t>
+  </si>
+  <si>
+    <t>Chopsuey greens</t>
+  </si>
+  <si>
+    <t>Lettuce</t>
+  </si>
+  <si>
+    <t>Mushrooms</t>
+  </si>
+  <si>
+    <t>Celery</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>Turnips</t>
+  </si>
+  <si>
+    <t>Squash</t>
+  </si>
+  <si>
+    <t>Mangetout</t>
+  </si>
+  <si>
+    <t>Spring greens (undeveloped spring cabbages)</t>
+  </si>
+  <si>
+    <t>Texel greens</t>
+  </si>
+  <si>
+    <t>Tomatoes (indoor)</t>
+  </si>
+  <si>
+    <t>Peas (shell)</t>
+  </si>
+  <si>
+    <t>Peas (sugar snap)</t>
+  </si>
+  <si>
+    <t>Redcurrants</t>
+  </si>
+  <si>
+    <t>Broad beans</t>
+  </si>
+  <si>
+    <t>Cherries</t>
+  </si>
+  <si>
+    <t>Courgette</t>
+  </si>
+  <si>
+    <t>Aubergine</t>
+  </si>
+  <si>
+    <t>Cucumber</t>
+  </si>
+  <si>
+    <t>Peas</t>
+  </si>
+  <si>
+    <t>Peppers</t>
+  </si>
+  <si>
+    <t>Raspberries</t>
+  </si>
+  <si>
+    <t>French beans</t>
+  </si>
+  <si>
+    <t>Runner beans</t>
+  </si>
+  <si>
+    <t>Beetroot</t>
+  </si>
+  <si>
+    <t>Blackcurrants</t>
+  </si>
+  <si>
+    <t>Potatoes (new)</t>
+  </si>
+  <si>
+    <t>Lexel greens</t>
+  </si>
+  <si>
+    <t>Loganberries</t>
+  </si>
+  <si>
+    <t>Blueberries</t>
+  </si>
+  <si>
+    <t>Globe artichoke</t>
+  </si>
+  <si>
+    <t>Peaches</t>
+  </si>
+  <si>
+    <t>Florence fennel</t>
+  </si>
+  <si>
+    <t>Marrow</t>
+  </si>
+  <si>
+    <t>Okra</t>
+  </si>
+  <si>
+    <t>Tomatoes</t>
+  </si>
+  <si>
+    <t>Pumpkins</t>
+  </si>
+  <si>
+    <t>Potatoes</t>
+  </si>
+  <si>
+    <t>Greengages</t>
+  </si>
+  <si>
+    <t>Blackberries</t>
+  </si>
+  <si>
+    <t>Nectarines</t>
+  </si>
+  <si>
+    <t>Chinese celery</t>
+  </si>
+  <si>
+    <t>Sweetcorn</t>
+  </si>
+  <si>
+    <t>Swede</t>
+  </si>
+  <si>
+    <t>Celeriac</t>
+  </si>
+  <si>
+    <t>Parsnip</t>
+  </si>
+  <si>
+    <t>Brussels sprouts</t>
+  </si>
+  <si>
+    <t>Kale</t>
+  </si>
+  <si>
     <t>Leek</t>
-  </si>
-  <si>
-    <t>Purple sprouting broccoli</t>
-  </si>
-  <si>
-    <t>Broccoli (white and purple)</t>
-  </si>
-  <si>
-    <t>Cauliflower</t>
-  </si>
-  <si>
-    <t>Japanese mustard spinach (komatsuma)</t>
-  </si>
-  <si>
-    <t>Chard</t>
-  </si>
-  <si>
-    <t>Early rhubarb</t>
-  </si>
-  <si>
-    <t>Kohlrabi</t>
-  </si>
-  <si>
-    <t>Spring greens</t>
-  </si>
-  <si>
-    <t>Claytonia</t>
-  </si>
-  <si>
-    <t>Rhubarb (forced)</t>
-  </si>
-  <si>
-    <t>Radishes</t>
-  </si>
-  <si>
-    <t>Watercress</t>
-  </si>
-  <si>
-    <t>Salad onions</t>
-  </si>
-  <si>
-    <t>Broccoli (calabrese)</t>
-  </si>
-  <si>
-    <t>Asparagus</t>
-  </si>
-  <si>
-    <t>Rhubarb</t>
-  </si>
-  <si>
-    <t>New carrots</t>
-  </si>
-  <si>
-    <t>New potatoes</t>
-  </si>
-  <si>
-    <t>Gooseberries</t>
-  </si>
-  <si>
-    <t>Land cress</t>
-  </si>
-  <si>
-    <t>Rocket</t>
-  </si>
-  <si>
-    <t>Strawberries</t>
-  </si>
-  <si>
-    <t>Chopsuey greens</t>
-  </si>
-  <si>
-    <t>Lettuce</t>
-  </si>
-  <si>
-    <t>Mushrooms</t>
-  </si>
-  <si>
-    <t>Celery</t>
-  </si>
-  <si>
-    <t>Onion</t>
-  </si>
-  <si>
-    <t>Turnips</t>
-  </si>
-  <si>
-    <t>Squash</t>
-  </si>
-  <si>
-    <t>Mangetout</t>
-  </si>
-  <si>
-    <t>Spring greens (undeveloped spring cabbages)</t>
-  </si>
-  <si>
-    <t>Texel greens</t>
-  </si>
-  <si>
-    <t>Tomatoes (indoor)</t>
-  </si>
-  <si>
-    <t>Peas (shell)</t>
-  </si>
-  <si>
-    <t>Peas (sugar snap)</t>
-  </si>
-  <si>
-    <t>Redcurrants</t>
-  </si>
-  <si>
-    <t>Broad beans</t>
-  </si>
-  <si>
-    <t>Cherries</t>
-  </si>
-  <si>
-    <t>Courgette</t>
-  </si>
-  <si>
-    <t>Aubergine</t>
-  </si>
-  <si>
-    <t>Cucumber</t>
-  </si>
-  <si>
-    <t>Peas</t>
-  </si>
-  <si>
-    <t>Peppers</t>
-  </si>
-  <si>
-    <t>Raspberries</t>
-  </si>
-  <si>
-    <t>French beans</t>
-  </si>
-  <si>
-    <t>Runner beans</t>
-  </si>
-  <si>
-    <t>Beetroot</t>
-  </si>
-  <si>
-    <t>Blackcurrants</t>
-  </si>
-  <si>
-    <t>Potatoes (new)</t>
-  </si>
-  <si>
-    <t>Lexel greens</t>
-  </si>
-  <si>
-    <t>Loganberries</t>
-  </si>
-  <si>
-    <t>Blueberries</t>
-  </si>
-  <si>
-    <t>Globe artichoke</t>
-  </si>
-  <si>
-    <t>Peaches</t>
-  </si>
-  <si>
-    <t>Florence fennel</t>
-  </si>
-  <si>
-    <t>Marrow</t>
-  </si>
-  <si>
-    <t>Okra</t>
-  </si>
-  <si>
-    <t>Tomatoes</t>
-  </si>
-  <si>
-    <t>Pumpkins</t>
-  </si>
-  <si>
-    <t>Potatoes</t>
-  </si>
-  <si>
-    <t>Greengages</t>
-  </si>
-  <si>
-    <t>Blackberries</t>
-  </si>
-  <si>
-    <t>Nectarines</t>
-  </si>
-  <si>
-    <t>Chinese celery</t>
-  </si>
-  <si>
-    <t>Sweetcorn</t>
-  </si>
-  <si>
-    <t>Leeks</t>
-  </si>
-  <si>
-    <t>Swede</t>
-  </si>
-  <si>
-    <t>Celeriac</t>
-  </si>
-  <si>
-    <t>Parsnip</t>
-  </si>
-  <si>
-    <t>Brussels sprouts</t>
-  </si>
-  <si>
-    <t>Kale</t>
   </si>
   <si>
     <t>Chicory</t>
@@ -702,7 +699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -823,8 +820,8 @@
       <c r="K3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" s="2" t="n">
-        <v>1</v>
+      <c r="L3" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="M3" s="3" t="n">
         <v>0</v>
@@ -846,8 +843,8 @@
       <c r="E4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="n">
-        <v>0</v>
+      <c r="F4" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>0</v>
@@ -875,8 +872,8 @@
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>1</v>
+      <c r="B5" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
@@ -890,26 +887,26 @@
       <c r="F5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <v>0</v>
+      <c r="G5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -928,17 +925,17 @@
       <c r="E6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>1</v>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>1</v>
@@ -963,11 +960,11 @@
       <c r="C7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>1</v>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>0</v>
@@ -981,17 +978,17 @@
       <c r="I7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>1</v>
+      <c r="J7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1054,23 +1051,23 @@
       <c r="F9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="n">
-        <v>0</v>
+      <c r="G9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="M9" s="3" t="n">
         <v>0</v>
@@ -1083,17 +1080,17 @@
       <c r="B10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>0</v>
+      <c r="C10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>1</v>
@@ -1110,11 +1107,11 @@
       <c r="K10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3" t="n">
-        <v>0</v>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1130,23 +1127,23 @@
       <c r="D11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>1</v>
+      <c r="E11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>1</v>
@@ -1154,8 +1151,8 @@
       <c r="L11" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M11" s="2" t="n">
-        <v>1</v>
+      <c r="M11" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1189,8 +1186,8 @@
       <c r="J12" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K12" s="2" t="n">
-        <v>1</v>
+      <c r="K12" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="n">
         <v>0</v>
@@ -1212,20 +1209,20 @@
       <c r="D13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>0</v>
+      <c r="E13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>0</v>
@@ -1271,8 +1268,8 @@
       <c r="J14" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="n">
-        <v>0</v>
+      <c r="K14" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L14" s="3" t="n">
         <v>0</v>
@@ -1309,14 +1306,14 @@
       <c r="I15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J15" s="3" t="n">
-        <v>0</v>
+      <c r="J15" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L15" s="3" t="n">
-        <v>0</v>
+      <c r="L15" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="M15" s="3" t="n">
         <v>0</v>
@@ -1332,23 +1329,23 @@
       <c r="C16" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>1</v>
+      <c r="D16" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>1</v>
+      <c r="F16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="J16" s="2" t="n">
         <v>1</v>
@@ -1379,11 +1376,11 @@
       <c r="E17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="n">
-        <v>0</v>
+      <c r="F17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="H17" s="3" t="n">
         <v>0</v>
@@ -1391,14 +1388,14 @@
       <c r="I17" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2" t="n">
-        <v>1</v>
+      <c r="J17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="n">
         <v>0</v>
@@ -1426,8 +1423,8 @@
       <c r="G18" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H18" s="3" t="n">
-        <v>0</v>
+      <c r="H18" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="I18" s="3" t="n">
         <v>0</v>
@@ -1458,17 +1455,17 @@
       <c r="D19" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E19" s="2" t="n">
-        <v>1</v>
+      <c r="E19" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>1</v>
+      <c r="G19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="I19" s="3" t="n">
         <v>0</v>
@@ -1546,14 +1543,14 @@
       <c r="F21" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="n">
-        <v>0</v>
+      <c r="G21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J21" s="3" t="n">
         <v>0</v>
@@ -1678,8 +1675,8 @@
       <c r="I24" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J24" s="3" t="n">
-        <v>0</v>
+      <c r="J24" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="K24" s="3" t="n">
         <v>0</v>
@@ -1722,8 +1719,8 @@
       <c r="J25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="K25" s="3" t="n">
-        <v>0</v>
+      <c r="K25" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L25" s="3" t="n">
         <v>0</v>
@@ -1830,8 +1827,8 @@
       <c r="E28" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F28" s="2" t="n">
-        <v>1</v>
+      <c r="F28" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>1</v>
@@ -1848,11 +1845,11 @@
       <c r="K28" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="3" t="n">
-        <v>0</v>
+      <c r="L28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1900,8 +1897,8 @@
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="3" t="n">
-        <v>0</v>
+      <c r="B30" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>0</v>
@@ -1944,8 +1941,8 @@
       <c r="B31" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C31" s="3" t="n">
-        <v>0</v>
+      <c r="C31" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D31" s="3" t="n">
         <v>0</v>
@@ -1982,11 +1979,11 @@
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>1</v>
+      <c r="B32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D32" s="3" t="n">
         <v>0</v>
@@ -2000,23 +1997,23 @@
       <c r="G32" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" s="2" t="n">
-        <v>1</v>
+      <c r="H32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2164,8 +2161,8 @@
       <c r="G36" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H36" s="3" t="n">
-        <v>0</v>
+      <c r="H36" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="I36" s="3" t="n">
         <v>0</v>
@@ -2290,8 +2287,8 @@
       <c r="H39" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="I39" s="3" t="n">
-        <v>0</v>
+      <c r="I39" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J39" s="3" t="n">
         <v>0</v>
@@ -2378,8 +2375,8 @@
       <c r="J41" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="n">
-        <v>0</v>
+      <c r="K41" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L41" s="3" t="n">
         <v>0</v>
@@ -2416,11 +2413,11 @@
       <c r="I42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2" t="n">
-        <v>1</v>
+      <c r="J42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="L42" s="3" t="n">
         <v>0</v>
@@ -2624,8 +2621,8 @@
       <c r="J47" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="K47" s="3" t="n">
-        <v>0</v>
+      <c r="K47" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L47" s="3" t="n">
         <v>0</v>
@@ -2679,14 +2676,14 @@
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" s="3" t="n">
-        <v>0</v>
+      <c r="B49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E49" s="3" t="n">
         <v>0</v>
@@ -2694,8 +2691,8 @@
       <c r="F49" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G49" s="2" t="n">
-        <v>1</v>
+      <c r="G49" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>1</v>
@@ -2709,25 +2706,25 @@
       <c r="K49" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3" t="n">
-        <v>0</v>
+      <c r="L49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>1</v>
+      <c r="B50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E50" s="3" t="n">
         <v>0</v>
@@ -2741,20 +2738,20 @@
       <c r="H50" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="I50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" s="2" t="n">
-        <v>1</v>
+      <c r="I50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2823,8 +2820,8 @@
       <c r="H52" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="I52" s="3" t="n">
-        <v>0</v>
+      <c r="I52" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J52" s="3" t="n">
         <v>0</v>
@@ -2908,8 +2905,8 @@
       <c r="I54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J54" s="3" t="n">
-        <v>0</v>
+      <c r="J54" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="K54" s="3" t="n">
         <v>0</v>
@@ -3034,8 +3031,8 @@
       <c r="J57" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="K57" s="3" t="n">
-        <v>0</v>
+      <c r="K57" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L57" s="3" t="n">
         <v>0</v>
@@ -3201,8 +3198,8 @@
       <c r="K61" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L61" s="3" t="n">
-        <v>0</v>
+      <c r="L61" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="M61" s="3" t="n">
         <v>0</v>
@@ -3212,26 +3209,26 @@
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" s="2" t="n">
-        <v>1</v>
+      <c r="B62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="I62" s="2" t="n">
         <v>1</v>
@@ -3245,31 +3242,31 @@
       <c r="L62" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M62" s="3" t="n">
-        <v>0</v>
+      <c r="M62" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" s="2" t="n">
-        <v>1</v>
+      <c r="B63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="H63" s="3" t="n">
         <v>0</v>
@@ -3277,17 +3274,17 @@
       <c r="I63" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" s="2" t="n">
-        <v>1</v>
+      <c r="J63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3318,8 +3315,8 @@
       <c r="I64" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J64" s="3" t="n">
-        <v>0</v>
+      <c r="J64" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="K64" s="3" t="n">
         <v>0</v>
@@ -3403,8 +3400,8 @@
       <c r="J66" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="K66" s="3" t="n">
-        <v>0</v>
+      <c r="K66" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L66" s="3" t="n">
         <v>0</v>
@@ -3458,8 +3455,8 @@
       <c r="A68" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="3" t="n">
-        <v>0</v>
+      <c r="B68" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="C68" s="3" t="n">
         <v>0</v>
@@ -3479,8 +3476,8 @@
       <c r="H68" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I68" s="2" t="n">
-        <v>1</v>
+      <c r="I68" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="J68" s="2" t="n">
         <v>1</v>
@@ -3488,22 +3485,22 @@
       <c r="K68" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L68" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" s="3" t="n">
-        <v>0</v>
+      <c r="L68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C69" s="3" t="n">
-        <v>0</v>
+      <c r="B69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D69" s="3" t="n">
         <v>0</v>
@@ -3529,8 +3526,8 @@
       <c r="K69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L69" s="3" t="n">
-        <v>0</v>
+      <c r="L69" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="M69" s="2" t="n">
         <v>1</v>
@@ -3543,11 +3540,11 @@
       <c r="B70" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C70" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" s="3" t="n">
-        <v>0</v>
+      <c r="C70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E70" s="3" t="n">
         <v>0</v>
@@ -3587,11 +3584,11 @@
       <c r="C71" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D71" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" s="3" t="n">
-        <v>0</v>
+      <c r="D71" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F71" s="3" t="n">
         <v>0</v>
@@ -3631,8 +3628,8 @@
       <c r="D72" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E72" s="3" t="n">
-        <v>0</v>
+      <c r="E72" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F72" s="3" t="n">
         <v>0</v>
@@ -3716,8 +3713,8 @@
       <c r="E74" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F74" s="3" t="n">
-        <v>0</v>
+      <c r="F74" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="G74" s="3" t="n">
         <v>0</v>
@@ -3745,20 +3742,20 @@
       <c r="A75" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B75" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C75" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D75" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F75" s="2" t="n">
-        <v>1</v>
+      <c r="B75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="G75" s="3" t="n">
         <v>0</v>
@@ -3772,14 +3769,14 @@
       <c r="J75" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="K75" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L75" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" s="2" t="n">
-        <v>1</v>
+      <c r="K75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3895,8 +3892,8 @@
       <c r="J78" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="K78" s="3" t="n">
-        <v>0</v>
+      <c r="K78" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L78" s="3" t="n">
         <v>0</v>
@@ -3980,8 +3977,8 @@
       <c r="K80" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L80" s="3" t="n">
-        <v>0</v>
+      <c r="L80" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="M80" s="3" t="n">
         <v>0</v>
@@ -4056,8 +4053,8 @@
       <c r="I82" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J82" s="2" t="n">
-        <v>1</v>
+      <c r="J82" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="K82" s="2" t="n">
         <v>1</v>
@@ -4065,16 +4062,16 @@
       <c r="L82" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M82" s="3" t="n">
-        <v>0</v>
+      <c r="M82" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B83" s="3" t="n">
-        <v>0</v>
+      <c r="B83" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="C83" s="3" t="n">
         <v>0</v>
@@ -4114,8 +4111,8 @@
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B84" s="2" t="n">
-        <v>1</v>
+      <c r="B84" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C84" s="3" t="n">
         <v>0</v>
@@ -4144,11 +4141,11 @@
       <c r="K84" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L84" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" s="2" t="n">
-        <v>1</v>
+      <c r="L84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4182,14 +4179,14 @@
       <c r="J85" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K85" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L85" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" s="3" t="n">
-        <v>0</v>
+      <c r="K85" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4229,49 +4226,49 @@
       <c r="L86" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M86" s="2" t="n">
-        <v>1</v>
+      <c r="M86" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" s="3" t="n">
-        <v>0</v>
+      <c r="B87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L87" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M87" s="3" t="n">
-        <v>0</v>
+      <c r="M87" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4681,47 +4678,6 @@
         <v>1</v>
       </c>
       <c r="M97" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B98" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D98" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E98" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F98" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H98" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K98" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L98" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" s="2" t="n">
         <v>1</v>
       </c>
     </row>
